--- a/src/main/java/testData/playerDetails.xlsx
+++ b/src/main/java/testData/playerDetails.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Team</t>
   </si>
@@ -150,12 +147,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -167,28 +164,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -202,7 +177,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -211,7 +186,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -220,28 +195,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -250,58 +240,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,44 +271,35 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -368,12 +319,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1435,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1445,23 +1395,25 @@
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>1</v>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="1448.25" customHeight="1">
+      <c r="A2" t="s" s="4">
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -1469,13 +1421,9 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" ht="1448.25" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>4</v>
-      </c>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1483,189 +1431,177 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
